--- a/Code/Results/Cases/Case_2_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9843859918943643</v>
+        <v>1.024660117703589</v>
       </c>
       <c r="D2">
-        <v>1.005196545073126</v>
+        <v>1.028811018128613</v>
       </c>
       <c r="E2">
-        <v>0.9977770626836987</v>
+        <v>1.048127862484221</v>
       </c>
       <c r="F2">
-        <v>0.9995077037846016</v>
+        <v>1.052409871202034</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036810052712218</v>
+        <v>1.029006745280023</v>
       </c>
       <c r="J2">
-        <v>1.007043960311679</v>
+        <v>1.02983348931217</v>
       </c>
       <c r="K2">
-        <v>1.016583955412016</v>
+        <v>1.031626750732128</v>
       </c>
       <c r="L2">
-        <v>1.009267453674541</v>
+        <v>1.050888573368396</v>
       </c>
       <c r="M2">
-        <v>1.010973901338643</v>
+        <v>1.055158681836927</v>
       </c>
       <c r="N2">
-        <v>1.005980899825303</v>
+        <v>1.013920277353502</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9904333284356306</v>
+        <v>1.025874052949465</v>
       </c>
       <c r="D3">
-        <v>1.009594354565772</v>
+        <v>1.029702286629079</v>
       </c>
       <c r="E3">
-        <v>1.004252507596509</v>
+        <v>1.049535383494687</v>
       </c>
       <c r="F3">
-        <v>1.006478542750852</v>
+        <v>1.053925447985052</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038190197751052</v>
+        <v>1.02920501264117</v>
       </c>
       <c r="J3">
-        <v>1.011188232138244</v>
+        <v>1.030685059668205</v>
       </c>
       <c r="K3">
-        <v>1.020105928216439</v>
+        <v>1.032325808617118</v>
       </c>
       <c r="L3">
-        <v>1.014831264426956</v>
+        <v>1.052106535967849</v>
       </c>
       <c r="M3">
-        <v>1.01702919513307</v>
+        <v>1.056485295928675</v>
       </c>
       <c r="N3">
-        <v>1.007398625313864</v>
+        <v>1.014207566787423</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9942402648832338</v>
+        <v>1.026658668492696</v>
       </c>
       <c r="D4">
-        <v>1.012364665406527</v>
+        <v>1.030278007268106</v>
       </c>
       <c r="E4">
-        <v>1.00833765136879</v>
+        <v>1.050446143585993</v>
       </c>
       <c r="F4">
-        <v>1.010875646323197</v>
+        <v>1.05490616427228</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039046441173347</v>
+        <v>1.029331538116388</v>
       </c>
       <c r="J4">
-        <v>1.013792461694384</v>
+        <v>1.031234734344365</v>
       </c>
       <c r="K4">
-        <v>1.022316115619816</v>
+        <v>1.032776528947206</v>
       </c>
       <c r="L4">
-        <v>1.018336479125174</v>
+        <v>1.052894116157382</v>
       </c>
       <c r="M4">
-        <v>1.020844560303125</v>
+        <v>1.057343239023775</v>
       </c>
       <c r="N4">
-        <v>1.008288968783497</v>
+        <v>1.014392865815611</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9958165182715975</v>
+        <v>1.026988312889572</v>
       </c>
       <c r="D5">
-        <v>1.013512036508456</v>
+        <v>1.030519804606107</v>
       </c>
       <c r="E5">
-        <v>1.010031241171127</v>
+        <v>1.050829031631406</v>
       </c>
       <c r="F5">
-        <v>1.012698439923123</v>
+        <v>1.055318471093627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039397886391785</v>
+        <v>1.029384306854236</v>
       </c>
       <c r="J5">
-        <v>1.014869563918837</v>
+        <v>1.031465496750231</v>
       </c>
       <c r="K5">
-        <v>1.023229492149425</v>
+        <v>1.032965626039096</v>
       </c>
       <c r="L5">
-        <v>1.01978848468123</v>
+        <v>1.053225093705747</v>
       </c>
       <c r="M5">
-        <v>1.022425165312423</v>
+        <v>1.057703811293473</v>
       </c>
       <c r="N5">
-        <v>1.00865707201972</v>
+        <v>1.014470623303644</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9960797938068413</v>
+        <v>1.027043649528601</v>
       </c>
       <c r="D6">
-        <v>1.013703694113077</v>
+        <v>1.030560389664215</v>
       </c>
       <c r="E6">
-        <v>1.010314242720631</v>
+        <v>1.050893320614604</v>
       </c>
       <c r="F6">
-        <v>1.013003024483974</v>
+        <v>1.055387700168191</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039456404074828</v>
+        <v>1.029393142189077</v>
       </c>
       <c r="J6">
-        <v>1.015049397774391</v>
+        <v>1.031504224016656</v>
       </c>
       <c r="K6">
-        <v>1.02338194513424</v>
+        <v>1.03299735369211</v>
       </c>
       <c r="L6">
-        <v>1.020031048625204</v>
+        <v>1.05328065930515</v>
       </c>
       <c r="M6">
-        <v>1.022689219513436</v>
+        <v>1.057764346813889</v>
       </c>
       <c r="N6">
-        <v>1.008718522297899</v>
+        <v>1.014483670804373</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9942614203353383</v>
+        <v>1.026663074030615</v>
       </c>
       <c r="D7">
-        <v>1.012380063499448</v>
+        <v>1.03028123910019</v>
       </c>
       <c r="E7">
-        <v>1.00836037307414</v>
+        <v>1.050451259731461</v>
       </c>
       <c r="F7">
-        <v>1.010900101951846</v>
+        <v>1.054911673476311</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039051170307409</v>
+        <v>1.029332244874787</v>
       </c>
       <c r="J7">
-        <v>1.013806922567267</v>
+        <v>1.031237819061155</v>
       </c>
       <c r="K7">
-        <v>1.022328381371791</v>
+        <v>1.032779057185834</v>
       </c>
       <c r="L7">
-        <v>1.018355964265796</v>
+        <v>1.052898539166628</v>
       </c>
       <c r="M7">
-        <v>1.020865770698096</v>
+        <v>1.057348057423217</v>
       </c>
       <c r="N7">
-        <v>1.008293911402759</v>
+        <v>1.014393905373115</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.98645244638441</v>
+        <v>1.025070557249288</v>
       </c>
       <c r="D8">
-        <v>1.006698894921998</v>
+        <v>1.029112432204835</v>
       </c>
       <c r="E8">
-        <v>0.9999880097946168</v>
+        <v>1.048603543555407</v>
       </c>
       <c r="F8">
-        <v>1.001887921898696</v>
+        <v>1.052922062807437</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037284281592879</v>
+        <v>1.029074116723073</v>
       </c>
       <c r="J8">
-        <v>1.008461068580074</v>
+        <v>1.030121561852994</v>
       </c>
       <c r="K8">
-        <v>1.0177888836127</v>
+        <v>1.031863336214158</v>
       </c>
       <c r="L8">
-        <v>1.011168143497366</v>
+        <v>1.051300300278118</v>
       </c>
       <c r="M8">
-        <v>1.013042380669356</v>
+        <v>1.055607116137233</v>
       </c>
       <c r="N8">
-        <v>1.006465791184719</v>
+        <v>1.014017492003685</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9718197602191281</v>
+        <v>1.02225744618424</v>
       </c>
       <c r="D9">
-        <v>0.9960727876023208</v>
+        <v>1.02704520561646</v>
       </c>
       <c r="E9">
-        <v>0.9843670585514812</v>
+        <v>1.045347427534836</v>
       </c>
       <c r="F9">
-        <v>0.98506812754089</v>
+        <v>1.049416176891361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033874644926551</v>
+        <v>1.028605712475588</v>
       </c>
       <c r="J9">
-        <v>0.9984084439198371</v>
+        <v>1.028144159500711</v>
       </c>
       <c r="K9">
-        <v>1.009229904064989</v>
+        <v>1.030237274492223</v>
       </c>
       <c r="L9">
-        <v>0.9977189658492678</v>
+        <v>1.048479811306144</v>
       </c>
       <c r="M9">
-        <v>0.9984082004894135</v>
+        <v>1.052535601645743</v>
       </c>
       <c r="N9">
-        <v>1.003024157144504</v>
+        <v>1.013349609767987</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.96138575498654</v>
+        <v>1.020377206064007</v>
       </c>
       <c r="D10">
-        <v>0.9885165839590109</v>
+        <v>1.025661831472289</v>
       </c>
       <c r="E10">
-        <v>0.9732698618050306</v>
+        <v>1.043176261001814</v>
       </c>
       <c r="F10">
-        <v>0.9731149738649489</v>
+        <v>1.047078653458054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031380344661138</v>
+        <v>1.028284306255378</v>
       </c>
       <c r="J10">
-        <v>0.9912198400832782</v>
+        <v>1.026818763226645</v>
       </c>
       <c r="K10">
-        <v>1.003096317297753</v>
+        <v>1.029144778362324</v>
       </c>
       <c r="L10">
-        <v>0.9881391119411749</v>
+        <v>1.046596414068437</v>
       </c>
       <c r="M10">
-        <v>0.9879872261517829</v>
+        <v>1.050485130747561</v>
       </c>
       <c r="N10">
-        <v>1.000561067366032</v>
+        <v>1.012901229327748</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9566830371834111</v>
+        <v>1.019561850176292</v>
       </c>
       <c r="D11">
-        <v>0.9851177660281603</v>
+        <v>1.025061556074856</v>
       </c>
       <c r="E11">
-        <v>0.9682769769974721</v>
+        <v>1.042235957805539</v>
       </c>
       <c r="F11">
-        <v>0.967735737594323</v>
+        <v>1.04606634789478</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03024217228351</v>
+        <v>1.028142960273121</v>
       </c>
       <c r="J11">
-        <v>0.9879758814860403</v>
+        <v>1.026243132544616</v>
       </c>
       <c r="K11">
-        <v>1.000325904753762</v>
+        <v>1.028669689641255</v>
       </c>
       <c r="L11">
-        <v>0.983823008795899</v>
+        <v>1.045780096537351</v>
       </c>
       <c r="M11">
-        <v>0.9832928861973883</v>
+        <v>1.049596530630083</v>
       </c>
       <c r="N11">
-        <v>0.9994492566216118</v>
+        <v>1.012706325729597</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9549061994428972</v>
+        <v>1.019258806513415</v>
       </c>
       <c r="D12">
-        <v>0.9838347878167959</v>
+        <v>1.024838395111485</v>
       </c>
       <c r="E12">
-        <v>0.9663917103815882</v>
+        <v>1.041886655659092</v>
       </c>
       <c r="F12">
-        <v>0.9657043813454733</v>
+        <v>1.045690305119644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029810127414331</v>
+        <v>1.028090130695426</v>
       </c>
       <c r="J12">
-        <v>0.9867496935083331</v>
+        <v>1.026029055884109</v>
       </c>
       <c r="K12">
-        <v>0.9992783820153367</v>
+        <v>1.028492913582983</v>
       </c>
       <c r="L12">
-        <v>0.9821924160588116</v>
+        <v>1.045476755556809</v>
       </c>
       <c r="M12">
-        <v>0.9815195081690412</v>
+        <v>1.049266349599226</v>
       </c>
       <c r="N12">
-        <v>0.9990289707233979</v>
+        <v>1.012633816110117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9552887360499568</v>
+        <v>1.019323818806443</v>
       </c>
       <c r="D13">
-        <v>0.9841109437208954</v>
+        <v>1.024886272612064</v>
       </c>
       <c r="E13">
-        <v>0.9667975381540979</v>
+        <v>1.041961583678134</v>
       </c>
       <c r="F13">
-        <v>0.9661416664900352</v>
+        <v>1.045770968908818</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029903231714655</v>
+        <v>1.028101477644165</v>
       </c>
       <c r="J13">
-        <v>0.9870137022891519</v>
+        <v>1.026074987942913</v>
       </c>
       <c r="K13">
-        <v>0.9995039367192766</v>
+        <v>1.028530846568017</v>
       </c>
       <c r="L13">
-        <v>0.9825434611540819</v>
+        <v>1.045541828932322</v>
       </c>
       <c r="M13">
-        <v>0.9819012880705608</v>
+        <v>1.049337179857892</v>
       </c>
       <c r="N13">
-        <v>0.9991194630365303</v>
+        <v>1.012649374829425</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9565367901502645</v>
+        <v>1.019536804272895</v>
       </c>
       <c r="D14">
-        <v>0.9850121418276439</v>
+        <v>1.02504311344664</v>
       </c>
       <c r="E14">
-        <v>0.9681217816607801</v>
+        <v>1.042207085059543</v>
       </c>
       <c r="F14">
-        <v>0.9675685204742731</v>
+        <v>1.046035264675809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030206651931113</v>
+        <v>1.028138600045956</v>
       </c>
       <c r="J14">
-        <v>0.9878749670316544</v>
+        <v>1.026225442256616</v>
       </c>
       <c r="K14">
-        <v>1.000239700737059</v>
+        <v>1.028655083549755</v>
       </c>
       <c r="L14">
-        <v>0.9836887958535335</v>
+        <v>1.045755024842006</v>
       </c>
       <c r="M14">
-        <v>0.9831469184607368</v>
+        <v>1.049569240147603</v>
       </c>
       <c r="N14">
-        <v>0.9994146679149232</v>
+        <v>1.012700334386728</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.957301704237335</v>
+        <v>1.019668007123071</v>
       </c>
       <c r="D15">
-        <v>0.985564636868775</v>
+        <v>1.025139722769497</v>
       </c>
       <c r="E15">
-        <v>0.9689335463096913</v>
+        <v>1.042358342199348</v>
       </c>
       <c r="F15">
-        <v>0.9684431577067868</v>
+        <v>1.046198102207624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030392352539107</v>
+        <v>1.028161428982282</v>
       </c>
       <c r="J15">
-        <v>0.9884027581819662</v>
+        <v>1.026318107356971</v>
       </c>
       <c r="K15">
-        <v>1.00069054190464</v>
+        <v>1.028731589324053</v>
       </c>
       <c r="L15">
-        <v>0.984390774598328</v>
+        <v>1.045886365257058</v>
       </c>
       <c r="M15">
-        <v>0.983910383202548</v>
+        <v>1.049712204702687</v>
       </c>
       <c r="N15">
-        <v>0.9995955686066907</v>
+        <v>1.012731717156107</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9616937775829467</v>
+        <v>1.020431292938378</v>
       </c>
       <c r="D16">
-        <v>0.9887393589663453</v>
+        <v>1.025701642957313</v>
       </c>
       <c r="E16">
-        <v>0.9735970624276751</v>
+        <v>1.043238661692622</v>
       </c>
       <c r="F16">
-        <v>0.9734674660300282</v>
+        <v>1.047145833329992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031454611680553</v>
+        <v>1.028293641045692</v>
       </c>
       <c r="J16">
-        <v>0.9914322398691815</v>
+        <v>1.026856929368209</v>
       </c>
       <c r="K16">
-        <v>1.003277662916764</v>
+        <v>1.029176265492925</v>
       </c>
       <c r="L16">
-        <v>0.9884218394618511</v>
+        <v>1.046650573217602</v>
       </c>
       <c r="M16">
-        <v>0.9882947452591886</v>
+        <v>1.050544088321745</v>
       </c>
       <c r="N16">
-        <v>1.00063385859807</v>
+        <v>1.012914148529451</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9643978176830557</v>
+        <v>1.020909758026191</v>
       </c>
       <c r="D17">
-        <v>0.9906958292004222</v>
+        <v>1.026053780589336</v>
       </c>
       <c r="E17">
-        <v>0.9764704375903703</v>
+        <v>1.043790812409751</v>
       </c>
       <c r="F17">
-        <v>0.9765628014777781</v>
+        <v>1.047740277641588</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032105011280462</v>
+        <v>1.028375991442199</v>
       </c>
       <c r="J17">
-        <v>0.9932963946933351</v>
+        <v>1.027194454438621</v>
       </c>
       <c r="K17">
-        <v>1.004868984920134</v>
+        <v>1.029454654120227</v>
       </c>
       <c r="L17">
-        <v>0.9909039986338012</v>
+        <v>1.047129724555975</v>
       </c>
       <c r="M17">
-        <v>0.9909946398074302</v>
+        <v>1.051065707039028</v>
       </c>
       <c r="N17">
-        <v>1.001272687515926</v>
+        <v>1.013028381054772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9659573826325999</v>
+        <v>1.021188723152185</v>
       </c>
       <c r="D18">
-        <v>0.991824862973623</v>
+        <v>1.026259054560626</v>
       </c>
       <c r="E18">
-        <v>0.97812849802424</v>
+        <v>1.044112856194165</v>
       </c>
       <c r="F18">
-        <v>0.97834882739352</v>
+        <v>1.048086993611058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032478810055526</v>
+        <v>1.028423815225197</v>
       </c>
       <c r="J18">
-        <v>0.9943711724838491</v>
+        <v>1.027391160806771</v>
       </c>
       <c r="K18">
-        <v>1.005786217962367</v>
+        <v>1.029616837692516</v>
       </c>
       <c r="L18">
-        <v>0.9923357528093409</v>
+        <v>1.047409129145539</v>
       </c>
       <c r="M18">
-        <v>0.9925520555271496</v>
+        <v>1.051369888078337</v>
       </c>
       <c r="N18">
-        <v>1.001640974202016</v>
+        <v>1.013094938459209</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9664862245520416</v>
+        <v>1.021283823585546</v>
       </c>
       <c r="D19">
-        <v>0.9922078158835911</v>
+        <v>1.026329027050551</v>
       </c>
       <c r="E19">
-        <v>0.9786908832796417</v>
+        <v>1.04422266219042</v>
       </c>
       <c r="F19">
-        <v>0.9789545973768181</v>
+        <v>1.048205212714944</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032605336873147</v>
+        <v>1.02844008633044</v>
       </c>
       <c r="J19">
-        <v>0.9947355582997539</v>
+        <v>1.02745820446589</v>
       </c>
       <c r="K19">
-        <v>1.006097148114457</v>
+        <v>1.029672104943544</v>
       </c>
       <c r="L19">
-        <v>0.992821283878307</v>
+        <v>1.047504386102356</v>
       </c>
       <c r="M19">
-        <v>0.9930802119284073</v>
+        <v>1.051473594181983</v>
       </c>
       <c r="N19">
-        <v>1.001765830275873</v>
+        <v>1.013117620541057</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9641095417097636</v>
+        <v>1.020858435223541</v>
       </c>
       <c r="D20">
-        <v>0.9904871842666602</v>
+        <v>1.026016012182473</v>
       </c>
       <c r="E20">
-        <v>0.9761640233240667</v>
+        <v>1.043731573600124</v>
       </c>
       <c r="F20">
-        <v>0.9762327296534684</v>
+        <v>1.047676500817689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032035809260116</v>
+        <v>1.028367177730507</v>
       </c>
       <c r="J20">
-        <v>0.9930976972964555</v>
+        <v>1.027158258413208</v>
       </c>
       <c r="K20">
-        <v>1.004699393258271</v>
+        <v>1.02942480592244</v>
       </c>
       <c r="L20">
-        <v>0.9906393611515426</v>
+        <v>1.047078324079515</v>
       </c>
       <c r="M20">
-        <v>0.9907067812260699</v>
+        <v>1.051009749602003</v>
       </c>
       <c r="N20">
-        <v>1.001204598727053</v>
+        <v>1.013016132490355</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9561701182104371</v>
+        <v>1.019474090477882</v>
       </c>
       <c r="D21">
-        <v>0.9847473398347709</v>
+        <v>1.024996933043915</v>
       </c>
       <c r="E21">
-        <v>0.9677326934546966</v>
+        <v>1.042134791940825</v>
       </c>
       <c r="F21">
-        <v>0.9671492892060751</v>
+        <v>1.045957436965036</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030117563006646</v>
+        <v>1.028127677466379</v>
       </c>
       <c r="J21">
-        <v>0.9876219453426376</v>
+        <v>1.026181144458856</v>
       </c>
       <c r="K21">
-        <v>1.000023557221152</v>
+        <v>1.028618507343658</v>
       </c>
       <c r="L21">
-        <v>0.9833522983500576</v>
+        <v>1.045692247431998</v>
       </c>
       <c r="M21">
-        <v>0.982780951213053</v>
+        <v>1.049500907404071</v>
       </c>
       <c r="N21">
-        <v>0.9993279435865482</v>
+        <v>1.012685331213449</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9510031615830824</v>
+        <v>1.018602630386506</v>
       </c>
       <c r="D22">
-        <v>0.9810189997771498</v>
+        <v>1.02435508602284</v>
       </c>
       <c r="E22">
-        <v>0.9622525870036516</v>
+        <v>1.041130645914384</v>
       </c>
       <c r="F22">
-        <v>0.9612441095747486</v>
+        <v>1.044876431675764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028857496077118</v>
+        <v>1.027975199674444</v>
       </c>
       <c r="J22">
-        <v>0.9840553679607</v>
+        <v>1.025565278176256</v>
       </c>
       <c r="K22">
-        <v>0.9969760906976883</v>
+        <v>1.028109778548231</v>
       </c>
       <c r="L22">
-        <v>0.9786108421474897</v>
+        <v>1.044820044360587</v>
       </c>
       <c r="M22">
-        <v>0.9776245124444152</v>
+        <v>1.048551568217862</v>
       </c>
       <c r="N22">
-        <v>0.9981054286421095</v>
+        <v>1.012476684836513</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9537596965078327</v>
+        <v>1.019064710396808</v>
       </c>
       <c r="D23">
-        <v>0.9830073100701652</v>
+        <v>1.024695447258056</v>
       </c>
       <c r="E23">
-        <v>0.9651755690372391</v>
+        <v>1.041662982219061</v>
       </c>
       <c r="F23">
-        <v>0.9643939398068551</v>
+        <v>1.045449510364456</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029530797130856</v>
+        <v>1.028056210820082</v>
       </c>
       <c r="J23">
-        <v>0.985958362019449</v>
+        <v>1.025891905106481</v>
       </c>
       <c r="K23">
-        <v>0.9986022671828294</v>
+        <v>1.028379634362459</v>
       </c>
       <c r="L23">
-        <v>0.9811403149562445</v>
+        <v>1.045282485791301</v>
       </c>
       <c r="M23">
-        <v>0.980375309404302</v>
+        <v>1.049054896187274</v>
       </c>
       <c r="N23">
-        <v>0.9987577285872073</v>
+        <v>1.012587354907172</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9642398556060661</v>
+        <v>1.020881626145494</v>
       </c>
       <c r="D24">
-        <v>0.9905814993482059</v>
+        <v>1.02603307847663</v>
       </c>
       <c r="E24">
-        <v>0.9763025339688856</v>
+        <v>1.043758341118594</v>
       </c>
       <c r="F24">
-        <v>0.976381934750154</v>
+        <v>1.047705318860026</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032067095841707</v>
+        <v>1.028371160915722</v>
       </c>
       <c r="J24">
-        <v>0.9931875187748022</v>
+        <v>1.027174614352792</v>
       </c>
       <c r="K24">
-        <v>1.004776058200911</v>
+        <v>1.02943829364319</v>
       </c>
       <c r="L24">
-        <v>0.9907589888690949</v>
+        <v>1.04710154997771</v>
       </c>
       <c r="M24">
-        <v>0.9908369056855867</v>
+        <v>1.051035034576139</v>
       </c>
       <c r="N24">
-        <v>1.001235378467701</v>
+        <v>1.013021667313366</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9757149845630507</v>
+        <v>1.022985540025823</v>
       </c>
       <c r="D25">
-        <v>0.9988984732482888</v>
+        <v>1.027580547424548</v>
       </c>
       <c r="E25">
-        <v>0.9885179432395198</v>
+        <v>1.046189265064985</v>
       </c>
       <c r="F25">
-        <v>0.9895382449681527</v>
+        <v>1.050322556696129</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034793355710749</v>
+        <v>1.028728414619744</v>
       </c>
       <c r="J25">
-        <v>1.001088217530317</v>
+        <v>1.028656612484806</v>
       </c>
       <c r="K25">
-        <v>1.011513913101555</v>
+        <v>1.030659134158699</v>
       </c>
       <c r="L25">
-        <v>1.001297157412446</v>
+        <v>1.04920949784754</v>
       </c>
       <c r="M25">
-        <v>1.002301166622553</v>
+        <v>1.053330134402981</v>
       </c>
       <c r="N25">
-        <v>1.003941998810873</v>
+        <v>1.013522821509651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024660117703589</v>
+        <v>0.9843859918943644</v>
       </c>
       <c r="D2">
-        <v>1.028811018128613</v>
+        <v>1.005196545073126</v>
       </c>
       <c r="E2">
-        <v>1.048127862484221</v>
+        <v>0.9977770626836991</v>
       </c>
       <c r="F2">
-        <v>1.052409871202034</v>
+        <v>0.9995077037846024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029006745280023</v>
+        <v>1.036810052712218</v>
       </c>
       <c r="J2">
-        <v>1.02983348931217</v>
+        <v>1.00704396031168</v>
       </c>
       <c r="K2">
-        <v>1.031626750732128</v>
+        <v>1.016583955412016</v>
       </c>
       <c r="L2">
-        <v>1.050888573368396</v>
+        <v>1.009267453674541</v>
       </c>
       <c r="M2">
-        <v>1.055158681836927</v>
+        <v>1.010973901338644</v>
       </c>
       <c r="N2">
-        <v>1.013920277353502</v>
+        <v>1.005980899825303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025874052949465</v>
+        <v>0.9904333284356319</v>
       </c>
       <c r="D3">
-        <v>1.029702286629079</v>
+        <v>1.009594354565774</v>
       </c>
       <c r="E3">
-        <v>1.049535383494687</v>
+        <v>1.004252507596509</v>
       </c>
       <c r="F3">
-        <v>1.053925447985052</v>
+        <v>1.006478542750852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02920501264117</v>
+        <v>1.038190197751053</v>
       </c>
       <c r="J3">
-        <v>1.030685059668205</v>
+        <v>1.011188232138245</v>
       </c>
       <c r="K3">
-        <v>1.032325808617118</v>
+        <v>1.02010592821644</v>
       </c>
       <c r="L3">
-        <v>1.052106535967849</v>
+        <v>1.014831264426956</v>
       </c>
       <c r="M3">
-        <v>1.056485295928675</v>
+        <v>1.017029195133071</v>
       </c>
       <c r="N3">
-        <v>1.014207566787423</v>
+        <v>1.007398625313864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026658668492696</v>
+        <v>0.9942402648832347</v>
       </c>
       <c r="D4">
-        <v>1.030278007268106</v>
+        <v>1.012364665406527</v>
       </c>
       <c r="E4">
-        <v>1.050446143585993</v>
+        <v>1.008337651368791</v>
       </c>
       <c r="F4">
-        <v>1.05490616427228</v>
+        <v>1.010875646323197</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029331538116388</v>
+        <v>1.039046441173348</v>
       </c>
       <c r="J4">
-        <v>1.031234734344365</v>
+        <v>1.013792461694385</v>
       </c>
       <c r="K4">
-        <v>1.032776528947206</v>
+        <v>1.022316115619816</v>
       </c>
       <c r="L4">
-        <v>1.052894116157382</v>
+        <v>1.018336479125174</v>
       </c>
       <c r="M4">
-        <v>1.057343239023775</v>
+        <v>1.020844560303125</v>
       </c>
       <c r="N4">
-        <v>1.014392865815611</v>
+        <v>1.008288968783497</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026988312889572</v>
+        <v>0.9958165182715973</v>
       </c>
       <c r="D5">
-        <v>1.030519804606107</v>
+        <v>1.013512036508456</v>
       </c>
       <c r="E5">
-        <v>1.050829031631406</v>
+        <v>1.010031241171127</v>
       </c>
       <c r="F5">
-        <v>1.055318471093627</v>
+        <v>1.012698439923123</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029384306854236</v>
+        <v>1.039397886391785</v>
       </c>
       <c r="J5">
-        <v>1.031465496750231</v>
+        <v>1.014869563918837</v>
       </c>
       <c r="K5">
-        <v>1.032965626039096</v>
+        <v>1.023229492149424</v>
       </c>
       <c r="L5">
-        <v>1.053225093705747</v>
+        <v>1.01978848468123</v>
       </c>
       <c r="M5">
-        <v>1.057703811293473</v>
+        <v>1.022425165312423</v>
       </c>
       <c r="N5">
-        <v>1.014470623303644</v>
+        <v>1.00865707201972</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027043649528601</v>
+        <v>0.9960797938068418</v>
       </c>
       <c r="D6">
-        <v>1.030560389664215</v>
+        <v>1.013703694113077</v>
       </c>
       <c r="E6">
-        <v>1.050893320614604</v>
+        <v>1.010314242720631</v>
       </c>
       <c r="F6">
-        <v>1.055387700168191</v>
+        <v>1.013003024483975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029393142189077</v>
+        <v>1.039456404074828</v>
       </c>
       <c r="J6">
-        <v>1.031504224016656</v>
+        <v>1.015049397774391</v>
       </c>
       <c r="K6">
-        <v>1.03299735369211</v>
+        <v>1.023381945134241</v>
       </c>
       <c r="L6">
-        <v>1.05328065930515</v>
+        <v>1.020031048625205</v>
       </c>
       <c r="M6">
-        <v>1.057764346813889</v>
+        <v>1.022689219513436</v>
       </c>
       <c r="N6">
-        <v>1.014483670804373</v>
+        <v>1.0087185222979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026663074030615</v>
+        <v>0.9942614203353378</v>
       </c>
       <c r="D7">
-        <v>1.03028123910019</v>
+        <v>1.012380063499447</v>
       </c>
       <c r="E7">
-        <v>1.050451259731461</v>
+        <v>1.00836037307414</v>
       </c>
       <c r="F7">
-        <v>1.054911673476311</v>
+        <v>1.010900101951846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029332244874787</v>
+        <v>1.039051170307409</v>
       </c>
       <c r="J7">
-        <v>1.031237819061155</v>
+        <v>1.013806922567267</v>
       </c>
       <c r="K7">
-        <v>1.032779057185834</v>
+        <v>1.02232838137179</v>
       </c>
       <c r="L7">
-        <v>1.052898539166628</v>
+        <v>1.018355964265795</v>
       </c>
       <c r="M7">
-        <v>1.057348057423217</v>
+        <v>1.020865770698096</v>
       </c>
       <c r="N7">
-        <v>1.014393905373115</v>
+        <v>1.008293911402759</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025070557249288</v>
+        <v>0.98645244638441</v>
       </c>
       <c r="D8">
-        <v>1.029112432204835</v>
+        <v>1.006698894921998</v>
       </c>
       <c r="E8">
-        <v>1.048603543555407</v>
+        <v>0.9999880097946166</v>
       </c>
       <c r="F8">
-        <v>1.052922062807437</v>
+        <v>1.001887921898696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029074116723073</v>
+        <v>1.037284281592879</v>
       </c>
       <c r="J8">
-        <v>1.030121561852994</v>
+        <v>1.008461068580074</v>
       </c>
       <c r="K8">
-        <v>1.031863336214158</v>
+        <v>1.0177888836127</v>
       </c>
       <c r="L8">
-        <v>1.051300300278118</v>
+        <v>1.011168143497366</v>
       </c>
       <c r="M8">
-        <v>1.055607116137233</v>
+        <v>1.013042380669355</v>
       </c>
       <c r="N8">
-        <v>1.014017492003685</v>
+        <v>1.006465791184719</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02225744618424</v>
+        <v>0.9718197602191274</v>
       </c>
       <c r="D9">
-        <v>1.02704520561646</v>
+        <v>0.9960727876023203</v>
       </c>
       <c r="E9">
-        <v>1.045347427534836</v>
+        <v>0.9843670585514809</v>
       </c>
       <c r="F9">
-        <v>1.049416176891361</v>
+        <v>0.9850681275408896</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028605712475588</v>
+        <v>1.033874644926551</v>
       </c>
       <c r="J9">
-        <v>1.028144159500711</v>
+        <v>0.9984084439198366</v>
       </c>
       <c r="K9">
-        <v>1.030237274492223</v>
+        <v>1.009229904064988</v>
       </c>
       <c r="L9">
-        <v>1.048479811306144</v>
+        <v>0.9977189658492674</v>
       </c>
       <c r="M9">
-        <v>1.052535601645743</v>
+        <v>0.9984082004894131</v>
       </c>
       <c r="N9">
-        <v>1.013349609767987</v>
+        <v>1.003024157144504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020377206064007</v>
+        <v>0.9613857549865413</v>
       </c>
       <c r="D10">
-        <v>1.025661831472289</v>
+        <v>0.9885165839590121</v>
       </c>
       <c r="E10">
-        <v>1.043176261001814</v>
+        <v>0.9732698618050319</v>
       </c>
       <c r="F10">
-        <v>1.047078653458054</v>
+        <v>0.9731149738649501</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028284306255378</v>
+        <v>1.031380344661138</v>
       </c>
       <c r="J10">
-        <v>1.026818763226645</v>
+        <v>0.9912198400832796</v>
       </c>
       <c r="K10">
-        <v>1.029144778362324</v>
+        <v>1.003096317297755</v>
       </c>
       <c r="L10">
-        <v>1.046596414068437</v>
+        <v>0.988139111941176</v>
       </c>
       <c r="M10">
-        <v>1.050485130747561</v>
+        <v>0.9879872261517841</v>
       </c>
       <c r="N10">
-        <v>1.012901229327748</v>
+        <v>1.000561067366033</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019561850176292</v>
+        <v>0.9566830371834112</v>
       </c>
       <c r="D11">
-        <v>1.025061556074856</v>
+        <v>0.9851177660281605</v>
       </c>
       <c r="E11">
-        <v>1.042235957805539</v>
+        <v>0.9682769769974721</v>
       </c>
       <c r="F11">
-        <v>1.04606634789478</v>
+        <v>0.9677357375943231</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028142960273121</v>
+        <v>1.03024217228351</v>
       </c>
       <c r="J11">
-        <v>1.026243132544616</v>
+        <v>0.9879758814860405</v>
       </c>
       <c r="K11">
-        <v>1.028669689641255</v>
+        <v>1.000325904753763</v>
       </c>
       <c r="L11">
-        <v>1.045780096537351</v>
+        <v>0.9838230087958991</v>
       </c>
       <c r="M11">
-        <v>1.049596530630083</v>
+        <v>0.9832928861973885</v>
       </c>
       <c r="N11">
-        <v>1.012706325729597</v>
+        <v>0.9994492566216117</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019258806513415</v>
+        <v>0.9549061994428987</v>
       </c>
       <c r="D12">
-        <v>1.024838395111485</v>
+        <v>0.9838347878167972</v>
       </c>
       <c r="E12">
-        <v>1.041886655659092</v>
+        <v>0.9663917103815893</v>
       </c>
       <c r="F12">
-        <v>1.045690305119644</v>
+        <v>0.9657043813454742</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028090130695426</v>
+        <v>1.029810127414331</v>
       </c>
       <c r="J12">
-        <v>1.026029055884109</v>
+        <v>0.9867496935083343</v>
       </c>
       <c r="K12">
-        <v>1.028492913582983</v>
+        <v>0.9992783820153379</v>
       </c>
       <c r="L12">
-        <v>1.045476755556809</v>
+        <v>0.9821924160588127</v>
       </c>
       <c r="M12">
-        <v>1.049266349599226</v>
+        <v>0.9815195081690421</v>
       </c>
       <c r="N12">
-        <v>1.012633816110117</v>
+        <v>0.9990289707233984</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019323818806443</v>
+        <v>0.9552887360499577</v>
       </c>
       <c r="D13">
-        <v>1.024886272612064</v>
+        <v>0.9841109437208956</v>
       </c>
       <c r="E13">
-        <v>1.041961583678134</v>
+        <v>0.9667975381540989</v>
       </c>
       <c r="F13">
-        <v>1.045770968908818</v>
+        <v>0.9661416664900361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028101477644165</v>
+        <v>1.029903231714655</v>
       </c>
       <c r="J13">
-        <v>1.026074987942913</v>
+        <v>0.9870137022891524</v>
       </c>
       <c r="K13">
-        <v>1.028530846568017</v>
+        <v>0.999503936719277</v>
       </c>
       <c r="L13">
-        <v>1.045541828932322</v>
+        <v>0.9825434611540829</v>
       </c>
       <c r="M13">
-        <v>1.049337179857892</v>
+        <v>0.9819012880705615</v>
       </c>
       <c r="N13">
-        <v>1.012649374829425</v>
+        <v>0.9991194630365304</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019536804272895</v>
+        <v>0.9565367901502636</v>
       </c>
       <c r="D14">
-        <v>1.02504311344664</v>
+        <v>0.9850121418276435</v>
       </c>
       <c r="E14">
-        <v>1.042207085059543</v>
+        <v>0.9681217816607793</v>
       </c>
       <c r="F14">
-        <v>1.046035264675809</v>
+        <v>0.9675685204742722</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028138600045956</v>
+        <v>1.030206651931113</v>
       </c>
       <c r="J14">
-        <v>1.026225442256616</v>
+        <v>0.9878749670316536</v>
       </c>
       <c r="K14">
-        <v>1.028655083549755</v>
+        <v>1.000239700737058</v>
       </c>
       <c r="L14">
-        <v>1.045755024842006</v>
+        <v>0.9836887958535326</v>
       </c>
       <c r="M14">
-        <v>1.049569240147603</v>
+        <v>0.9831469184607357</v>
       </c>
       <c r="N14">
-        <v>1.012700334386728</v>
+        <v>0.9994146679149229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019668007123071</v>
+        <v>0.957301704237334</v>
       </c>
       <c r="D15">
-        <v>1.025139722769497</v>
+        <v>0.9855646368687739</v>
       </c>
       <c r="E15">
-        <v>1.042358342199348</v>
+        <v>0.9689335463096899</v>
       </c>
       <c r="F15">
-        <v>1.046198102207624</v>
+        <v>0.9684431577067851</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028161428982282</v>
+        <v>1.030392352539107</v>
       </c>
       <c r="J15">
-        <v>1.026318107356971</v>
+        <v>0.9884027581819652</v>
       </c>
       <c r="K15">
-        <v>1.028731589324053</v>
+        <v>1.000690541904639</v>
       </c>
       <c r="L15">
-        <v>1.045886365257058</v>
+        <v>0.9843907745983269</v>
       </c>
       <c r="M15">
-        <v>1.049712204702687</v>
+        <v>0.9839103832025466</v>
       </c>
       <c r="N15">
-        <v>1.012731717156107</v>
+        <v>0.9995955686066904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020431292938378</v>
+        <v>0.9616937775829477</v>
       </c>
       <c r="D16">
-        <v>1.025701642957313</v>
+        <v>0.9887393589663462</v>
       </c>
       <c r="E16">
-        <v>1.043238661692622</v>
+        <v>0.9735970624276763</v>
       </c>
       <c r="F16">
-        <v>1.047145833329992</v>
+        <v>0.9734674660300293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028293641045692</v>
+        <v>1.031454611680554</v>
       </c>
       <c r="J16">
-        <v>1.026856929368209</v>
+        <v>0.9914322398691825</v>
       </c>
       <c r="K16">
-        <v>1.029176265492925</v>
+        <v>1.003277662916765</v>
       </c>
       <c r="L16">
-        <v>1.046650573217602</v>
+        <v>0.9884218394618522</v>
       </c>
       <c r="M16">
-        <v>1.050544088321745</v>
+        <v>0.9882947452591897</v>
       </c>
       <c r="N16">
-        <v>1.012914148529451</v>
+        <v>1.00063385859807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020909758026191</v>
+        <v>0.964397817683055</v>
       </c>
       <c r="D17">
-        <v>1.026053780589336</v>
+        <v>0.9906958292004218</v>
       </c>
       <c r="E17">
-        <v>1.043790812409751</v>
+        <v>0.9764704375903694</v>
       </c>
       <c r="F17">
-        <v>1.047740277641588</v>
+        <v>0.976562801477777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028375991442199</v>
+        <v>1.032105011280462</v>
       </c>
       <c r="J17">
-        <v>1.027194454438621</v>
+        <v>0.9932963946933346</v>
       </c>
       <c r="K17">
-        <v>1.029454654120227</v>
+        <v>1.004868984920133</v>
       </c>
       <c r="L17">
-        <v>1.047129724555975</v>
+        <v>0.9909039986338004</v>
       </c>
       <c r="M17">
-        <v>1.051065707039028</v>
+        <v>0.9909946398074291</v>
       </c>
       <c r="N17">
-        <v>1.013028381054772</v>
+        <v>1.001272687515925</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021188723152185</v>
+        <v>0.9659573826326011</v>
       </c>
       <c r="D18">
-        <v>1.026259054560626</v>
+        <v>0.9918248629736245</v>
       </c>
       <c r="E18">
-        <v>1.044112856194165</v>
+        <v>0.9781284980242407</v>
       </c>
       <c r="F18">
-        <v>1.048086993611058</v>
+        <v>0.978348827393521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028423815225197</v>
+        <v>1.032478810055526</v>
       </c>
       <c r="J18">
-        <v>1.027391160806771</v>
+        <v>0.9943711724838503</v>
       </c>
       <c r="K18">
-        <v>1.029616837692516</v>
+        <v>1.005786217962368</v>
       </c>
       <c r="L18">
-        <v>1.047409129145539</v>
+        <v>0.9923357528093418</v>
       </c>
       <c r="M18">
-        <v>1.051369888078337</v>
+        <v>0.9925520555271506</v>
       </c>
       <c r="N18">
-        <v>1.013094938459209</v>
+        <v>1.001640974202017</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021283823585546</v>
+        <v>0.9664862245520417</v>
       </c>
       <c r="D19">
-        <v>1.026329027050551</v>
+        <v>0.9922078158835914</v>
       </c>
       <c r="E19">
-        <v>1.04422266219042</v>
+        <v>0.9786908832796417</v>
       </c>
       <c r="F19">
-        <v>1.048205212714944</v>
+        <v>0.9789545973768177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02844008633044</v>
+        <v>1.032605336873147</v>
       </c>
       <c r="J19">
-        <v>1.02745820446589</v>
+        <v>0.9947355582997542</v>
       </c>
       <c r="K19">
-        <v>1.029672104943544</v>
+        <v>1.006097148114457</v>
       </c>
       <c r="L19">
-        <v>1.047504386102356</v>
+        <v>0.9928212838783068</v>
       </c>
       <c r="M19">
-        <v>1.051473594181983</v>
+        <v>0.993080211928407</v>
       </c>
       <c r="N19">
-        <v>1.013117620541057</v>
+        <v>1.001765830275873</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020858435223541</v>
+        <v>0.9641095417097638</v>
       </c>
       <c r="D20">
-        <v>1.026016012182473</v>
+        <v>0.9904871842666605</v>
       </c>
       <c r="E20">
-        <v>1.043731573600124</v>
+        <v>0.9761640233240672</v>
       </c>
       <c r="F20">
-        <v>1.047676500817689</v>
+        <v>0.9762327296534689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028367177730507</v>
+        <v>1.032035809260116</v>
       </c>
       <c r="J20">
-        <v>1.027158258413208</v>
+        <v>0.9930976972964556</v>
       </c>
       <c r="K20">
-        <v>1.02942480592244</v>
+        <v>1.004699393258271</v>
       </c>
       <c r="L20">
-        <v>1.047078324079515</v>
+        <v>0.9906393611515428</v>
       </c>
       <c r="M20">
-        <v>1.051009749602003</v>
+        <v>0.9907067812260704</v>
       </c>
       <c r="N20">
-        <v>1.013016132490355</v>
+        <v>1.001204598727053</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019474090477882</v>
+        <v>0.9561701182104377</v>
       </c>
       <c r="D21">
-        <v>1.024996933043915</v>
+        <v>0.9847473398347717</v>
       </c>
       <c r="E21">
-        <v>1.042134791940825</v>
+        <v>0.9677326934546978</v>
       </c>
       <c r="F21">
-        <v>1.045957436965036</v>
+        <v>0.9671492892060766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028127677466379</v>
+        <v>1.030117563006647</v>
       </c>
       <c r="J21">
-        <v>1.026181144458856</v>
+        <v>0.9876219453426383</v>
       </c>
       <c r="K21">
-        <v>1.028618507343658</v>
+        <v>1.000023557221153</v>
       </c>
       <c r="L21">
-        <v>1.045692247431998</v>
+        <v>0.9833522983500587</v>
       </c>
       <c r="M21">
-        <v>1.049500907404071</v>
+        <v>0.9827809512130543</v>
       </c>
       <c r="N21">
-        <v>1.012685331213449</v>
+        <v>0.9993279435865484</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018602630386506</v>
+        <v>0.9510031615830827</v>
       </c>
       <c r="D22">
-        <v>1.02435508602284</v>
+        <v>0.9810189997771499</v>
       </c>
       <c r="E22">
-        <v>1.041130645914384</v>
+        <v>0.9622525870036517</v>
       </c>
       <c r="F22">
-        <v>1.044876431675764</v>
+        <v>0.9612441095747486</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027975199674444</v>
+        <v>1.028857496077119</v>
       </c>
       <c r="J22">
-        <v>1.025565278176256</v>
+        <v>0.9840553679607003</v>
       </c>
       <c r="K22">
-        <v>1.028109778548231</v>
+        <v>0.9969760906976886</v>
       </c>
       <c r="L22">
-        <v>1.044820044360587</v>
+        <v>0.9786108421474898</v>
       </c>
       <c r="M22">
-        <v>1.048551568217862</v>
+        <v>0.9776245124444152</v>
       </c>
       <c r="N22">
-        <v>1.012476684836513</v>
+        <v>0.9981054286421098</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019064710396808</v>
+        <v>0.9537596965078322</v>
       </c>
       <c r="D23">
-        <v>1.024695447258056</v>
+        <v>0.9830073100701651</v>
       </c>
       <c r="E23">
-        <v>1.041662982219061</v>
+        <v>0.9651755690372388</v>
       </c>
       <c r="F23">
-        <v>1.045449510364456</v>
+        <v>0.9643939398068551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028056210820082</v>
+        <v>1.029530797130856</v>
       </c>
       <c r="J23">
-        <v>1.025891905106481</v>
+        <v>0.9859583620194488</v>
       </c>
       <c r="K23">
-        <v>1.028379634362459</v>
+        <v>0.9986022671828292</v>
       </c>
       <c r="L23">
-        <v>1.045282485791301</v>
+        <v>0.9811403149562444</v>
       </c>
       <c r="M23">
-        <v>1.049054896187274</v>
+        <v>0.980375309404302</v>
       </c>
       <c r="N23">
-        <v>1.012587354907172</v>
+        <v>0.9987577285872072</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020881626145494</v>
+        <v>0.9642398556060655</v>
       </c>
       <c r="D24">
-        <v>1.02603307847663</v>
+        <v>0.9905814993482057</v>
       </c>
       <c r="E24">
-        <v>1.043758341118594</v>
+        <v>0.9763025339688856</v>
       </c>
       <c r="F24">
-        <v>1.047705318860026</v>
+        <v>0.9763819347501538</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028371160915722</v>
+        <v>1.032067095841707</v>
       </c>
       <c r="J24">
-        <v>1.027174614352792</v>
+        <v>0.9931875187748018</v>
       </c>
       <c r="K24">
-        <v>1.02943829364319</v>
+        <v>1.004776058200911</v>
       </c>
       <c r="L24">
-        <v>1.04710154997771</v>
+        <v>0.9907589888690947</v>
       </c>
       <c r="M24">
-        <v>1.051035034576139</v>
+        <v>0.9908369056855864</v>
       </c>
       <c r="N24">
-        <v>1.013021667313366</v>
+        <v>1.0012353784677</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022985540025823</v>
+        <v>0.9757149845630499</v>
       </c>
       <c r="D25">
-        <v>1.027580547424548</v>
+        <v>0.9988984732482883</v>
       </c>
       <c r="E25">
-        <v>1.046189265064985</v>
+        <v>0.9885179432395197</v>
       </c>
       <c r="F25">
-        <v>1.050322556696129</v>
+        <v>0.9895382449681523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028728414619744</v>
+        <v>1.034793355710749</v>
       </c>
       <c r="J25">
-        <v>1.028656612484806</v>
+        <v>1.001088217530316</v>
       </c>
       <c r="K25">
-        <v>1.030659134158699</v>
+        <v>1.011513913101554</v>
       </c>
       <c r="L25">
-        <v>1.04920949784754</v>
+        <v>1.001297157412446</v>
       </c>
       <c r="M25">
-        <v>1.053330134402981</v>
+        <v>1.002301166622552</v>
       </c>
       <c r="N25">
-        <v>1.013522821509651</v>
+        <v>1.003941998810873</v>
       </c>
     </row>
   </sheetData>
